--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35" count="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -34,91 +34,16 @@
     <x:t>Ваші контакти (необов'язково)</x:t>
   </x:si>
   <x:si>
-    <x:t>etyuetyuапорпопвр</x:t>
-  </x:si>
-  <x:si>
-    <x:t>овпровпровпро</x:t>
-  </x:si>
-  <x:si>
-    <x:t>врповпро</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eytuetyuet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yuetyue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tyuetyu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>677667i</x:t>
-  </x:si>
-  <x:si>
-    <x:t>467i467i</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3476i37i3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67i67i467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>i467i46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7i467i467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35673567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6573567</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>etyuetyuetyuetyu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35673567356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etyuety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>673567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etyuetyue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7ujtyuteu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>356735673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56735673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4786</x:t>
-  </x:si>
-  <x:si>
-    <x:t>846784678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>356735673567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73567356u</x:t>
-  </x:si>
-  <x:si>
-    <x:t>etyuetyuetyu</x:t>
+    <x:t>11111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6747846784678енуеноуеноуеноеуноуено</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ytuetyuetyuпарвноу</x:t>
+  </x:si>
+  <x:si>
+    <x:t>уеноуеноуеноуен</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -508,142 +433,21 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -44,6 +44,15 @@
   </x:si>
   <x:si>
     <x:t>уеноуеноуеноуен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>657356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56735673567</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -450,6 +459,17 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -46,13 +46,34 @@
     <x:t>уеноуеноуеноуен</x:t>
   </x:si>
   <x:si>
-    <x:t>657356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56735673567</x:t>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22222222222222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2323423</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -467,7 +488,40 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
         <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34" count="34">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -37,43 +37,94 @@
     <x:t>11111</x:t>
   </x:si>
   <x:si>
-    <x:t>6747846784678енуеноуеноуеноеуноуено</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ytuetyuetyuпарвноу</x:t>
-  </x:si>
-  <x:si>
-    <x:t>уеноуеноуеноуен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22222222222222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2323423</x:t>
+    <x:t>gfhfghfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hfghfghfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hfghfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fghfghfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fghfghfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdgdfgfdg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfgdfgdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdgdfgdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdgfdgdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdgdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfgdfgdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghjghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fghfghf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghfghfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fghfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hgjghjgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghjghjgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>fghfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfgdfg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdfgfdg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hgjhgjgfgh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jghjghj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhkjhk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjkhjk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjkhjkh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111111111111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2222222222222222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>333333333333</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -485,7 +536,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
@@ -510,18 +561,95 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34" count="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -125,6 +125,9 @@
   </x:si>
   <x:si>
     <x:t>333333333333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -652,6 +655,17 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -128,6 +128,45 @@
   </x:si>
   <x:si>
     <x:t>ghg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vbvdbd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ggfdgfdg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bvhmnbgjhhbmn@gfh.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hbhbhjb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hbjhbhjb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bjhjhjhk@fgfhgf.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gfddfdsfsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdfdfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkljkjlkjkljkljkljjkllkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkljljlj@ghf.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfdfdvcv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dfdfdfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdfdfdfdfdfdfdf</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -666,6 +705,72 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45" count="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51" count="51">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -771,6 +771,28 @@
         <x:v>50</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51" count="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52" count="52">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -167,6 +167,9 @@
   </x:si>
   <x:si>
     <x:t>fdfdfdfdfdfdfdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iyuiryui</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -793,6 +796,94 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52" count="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51" count="51">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -167,9 +167,6 @@
   </x:si>
   <x:si>
     <x:t>fdfdfdfdfdfdfdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iyuiryui</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -796,94 +793,6 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="A28" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:3">
-      <x:c r="A30" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:3">
-      <x:c r="A32" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51" count="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="55">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -167,6 +167,18 @@
   </x:si>
   <x:si>
     <x:t>fdfdfdfdfdfdfdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iyuiryui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhjkjhkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjlhkjhk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kljhlkjhlk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -793,6 +805,105 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55" count="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69" count="69">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -179,6 +179,48 @@
   </x:si>
   <x:si>
     <x:t>kljhlkjhlk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jlhkljhklj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hkjhkjhj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjhkjl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kljhlkjhlkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hklhj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4tyoirutoiy ityirtiy wrty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hjhkjhlkjhlkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkhklhlkjhklj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nkjhljkhkjlhlkjhkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lkjhlkjhlkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kljhlkjhkljhlkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjhkjlhlkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lkjhlkjhlk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -904,6 +946,61 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/www/ok/data.xlsx
+++ b/www/ok/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69" count="69">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77" count="77">
   <x:si>
     <x:t>message</x:t>
   </x:si>
@@ -221,6 +221,39 @@
   </x:si>
   <x:si>
     <x:t>lkjhlkjhlk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjhkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhklj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hgjkjhgkjhg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhgkjhgkjhgkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gjhgkjhgjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jkhkjklhj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kljhkjhlkjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kljhklj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kjkhhkjhkjhKJH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HKJHKJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JHKJH</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1001,6 +1034,50 @@
         <x:v>68</x:v>
       </x:c>
     </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
